--- a/Exercises/Everything.xlsx
+++ b/Exercises/Everything.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edcul\Documents\Work\Modules\LPR 381\Linear-Programming-101\Exercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2445a1c52d39f861/Documents/Work/Modules/Year 3/LPR 381/Linear-Programming-101/Exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD2EC19-E879-447A-B539-4C9D00CDAF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{2AD2EC19-E879-447A-B539-4C9D00CDAF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8415951D-BF5F-4622-B564-830B40299968}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Branch &amp; Bound" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>Problem</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>T-3</t>
+  </si>
+  <si>
+    <t>Branch &amp; Bound Algorithm</t>
   </si>
 </sst>
 </file>
@@ -625,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -642,6 +645,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="12" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -649,6 +671,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -693,44 +718,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="12" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="12" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="12" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1011,145 +998,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U45"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="22"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="42"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
-    </row>
-    <row r="3" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="28"/>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
+    </row>
+    <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="45"/>
+    </row>
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="48"/>
+    </row>
+    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+    </row>
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="O12" s="16" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="O12" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="18"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="37"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1181,7 +1168,7 @@
       </c>
       <c r="U13" s="5"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1215,7 +1202,7 @@
       </c>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>17</v>
@@ -1257,7 +1244,7 @@
       </c>
       <c r="U15" s="5"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>19</v>
@@ -1290,16 +1277,16 @@
       </c>
       <c r="U16" s="5"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
       <c r="H17" t="s">
@@ -1324,435 +1311,423 @@
       </c>
       <c r="U17" s="9"/>
     </row>
-    <row r="20" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+    <row r="20" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B23" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="37"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="44" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B25" s="11"/>
+      <c r="C25" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="D25" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37" t="s">
+      <c r="F25" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="37">
+      <c r="G25">
         <v>0</v>
       </c>
-      <c r="G25" s="35"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="44" t="s">
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B26" s="11"/>
+      <c r="C26" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="D26" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="E26" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="F26" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="37">
+      <c r="G26">
         <v>6</v>
       </c>
-      <c r="G26" s="35"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="44" t="s">
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B27" s="11"/>
+      <c r="C27" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="D27" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="E27" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="F27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="37">
+      <c r="G27">
         <v>45</v>
       </c>
-      <c r="G27" s="35"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="42"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="51" t="s">
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A31" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="10"/>
+      <c r="B33" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C33" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="D33" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="52" t="s">
+      <c r="E33" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="52" t="s">
+      <c r="F33" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="52" t="s">
+      <c r="G33" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="53" t="s">
+      <c r="H33" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="49" t="s">
+      <c r="J33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="54" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="10"/>
+      <c r="B34" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="55">
+      <c r="C34" s="22">
         <v>-8</v>
       </c>
-      <c r="D33" s="48">
+      <c r="D34" s="17">
         <v>-5</v>
       </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49">
+      <c r="G34">
         <v>0</v>
       </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="46"/>
-      <c r="J33" t="s">
+      <c r="H34" s="5"/>
+      <c r="J34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="54" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="10"/>
+      <c r="B35" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="55">
+      <c r="C35" s="22">
         <v>1</v>
       </c>
-      <c r="D34" s="48">
+      <c r="D35" s="17">
         <v>1</v>
       </c>
-      <c r="E34" s="50">
+      <c r="E35" s="6">
         <v>1</v>
       </c>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49">
+      <c r="G35">
         <v>6</v>
       </c>
-      <c r="H34" s="5">
-        <f>G34/C34</f>
+      <c r="H35" s="5">
+        <f>G35/C35</f>
         <v>6</v>
       </c>
-      <c r="I34" s="46"/>
-      <c r="J34" t="s">
+      <c r="J35" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="57" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="56">
+      <c r="C36" s="23">
         <v>9</v>
       </c>
-      <c r="D35" s="56">
+      <c r="D36" s="23">
         <v>5</v>
       </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="56">
+      <c r="E36" s="25"/>
+      <c r="F36" s="23">
         <v>1</v>
       </c>
-      <c r="G35" s="56">
+      <c r="G36" s="23">
         <v>45</v>
       </c>
-      <c r="H35" s="59">
-        <f>G35/C35</f>
+      <c r="H36" s="26">
+        <f>G36/C36</f>
         <v>5</v>
       </c>
-      <c r="I35" s="46"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="51" t="s">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C38" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D38" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="52" t="s">
+      <c r="E38" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="52" t="s">
+      <c r="F38" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G37" s="52" t="s">
+      <c r="G38" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="53" t="s">
+      <c r="H38" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J37" s="49" t="s">
+      <c r="J38" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="54" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="60">
-        <f t="shared" ref="C38:F39" si="0">C33-($C33*C$40)</f>
+      <c r="C39" s="27">
+        <f t="shared" ref="C39:F40" si="0">C34-($C34*C$41)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="61">
+      <c r="D39" s="28">
         <f t="shared" si="0"/>
         <v>-0.55555555555555536</v>
       </c>
-      <c r="E38" s="60">
+      <c r="E39" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F38" s="60">
+      <c r="F39" s="27">
         <f t="shared" si="0"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="G38" s="60">
-        <f>G33-($C33*G$40)</f>
+      <c r="G39" s="27">
+        <f>G34-($C34*G$41)</f>
         <v>40</v>
       </c>
-      <c r="H38" s="5"/>
-      <c r="J38" t="s">
+      <c r="H39" s="5"/>
+      <c r="J39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="62" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="61">
+      <c r="C40" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D39" s="61">
+      <c r="D40" s="28">
         <f t="shared" si="0"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="E39" s="61">
+      <c r="E40" s="28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F39" s="61">
+      <c r="F40" s="28">
         <f t="shared" si="0"/>
         <v>-0.1111111111111111</v>
       </c>
-      <c r="G39" s="61">
-        <f>G34-($C34*G$40)</f>
+      <c r="G40" s="28">
+        <f>G35-($C35*G$41)</f>
         <v>1</v>
       </c>
-      <c r="H39" s="63">
-        <f>G39/D39</f>
+      <c r="H40" s="30">
+        <f>G40/D40</f>
         <v>2.25</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="39" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="64">
-        <f>C35/$C$35</f>
+      <c r="C41" s="31">
+        <f>C36/$C$36</f>
         <v>1</v>
       </c>
-      <c r="D40" s="65">
-        <f t="shared" ref="D40:G40" si="1">D35/$C$35</f>
+      <c r="D41" s="32">
+        <f t="shared" ref="D41:G41" si="1">D36/$C$36</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="E40" s="64">
+      <c r="E41" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="64">
+      <c r="F41" s="31">
         <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="G40" s="64">
+      <c r="G41" s="31">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H40" s="66">
-        <f>G40/D40</f>
+      <c r="H41" s="33">
+        <f>G41/D41</f>
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="51" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C43" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="52" t="s">
+      <c r="D43" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E43" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F42" s="52" t="s">
+      <c r="F43" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="53" t="s">
+      <c r="G43" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="54" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="60">
-        <f t="shared" ref="C43:F43" si="2">C38-($D38*C$44)</f>
+      <c r="C44" s="27">
+        <f t="shared" ref="C44:F44" si="2">C39-($D39*C$45)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="60">
+      <c r="D44" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E43" s="60">
+      <c r="E44" s="27">
         <f t="shared" si="2"/>
         <v>1.2499999999999996</v>
       </c>
-      <c r="F43" s="60">
+      <c r="F44" s="27">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="G43" s="67">
-        <f>G38-($D38*G$44)</f>
+      <c r="G44" s="34">
+        <f>G39-($D39*G$45)</f>
         <v>41.25</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="54" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="60">
-        <f>C39/$D$39</f>
+      <c r="C45" s="27">
+        <f>C40/$D$40</f>
         <v>0</v>
       </c>
-      <c r="D44" s="60">
-        <f t="shared" ref="D44:G44" si="3">D39/$D$39</f>
+      <c r="D45" s="27">
+        <f t="shared" ref="D45:G45" si="3">D40/$D$40</f>
         <v>1</v>
       </c>
-      <c r="E44" s="60">
+      <c r="E45" s="27">
         <f t="shared" si="3"/>
         <v>2.25</v>
       </c>
-      <c r="F44" s="60">
+      <c r="F45" s="27">
         <f t="shared" si="3"/>
         <v>-0.25</v>
       </c>
-      <c r="G44" s="67">
+      <c r="G45" s="34">
         <f t="shared" si="3"/>
         <v>2.25</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="39" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="64">
-        <f t="shared" ref="C45:G45" si="4">C40-($D40*C$44)</f>
+      <c r="C46" s="31">
+        <f t="shared" ref="C46:G46" si="4">C41-($D41*C$45)</f>
         <v>1</v>
       </c>
-      <c r="D45" s="64">
+      <c r="D46" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E45" s="64">
+      <c r="E46" s="31">
         <f t="shared" si="4"/>
         <v>-1.25</v>
       </c>
-      <c r="F45" s="64">
+      <c r="F46" s="31">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-      <c r="G45" s="68">
+      <c r="G46" s="33">
         <f t="shared" si="4"/>
         <v>3.75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="O12:U12"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N4"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="O12:U12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Exercises/Everything.xlsx
+++ b/Exercises/Everything.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2445a1c52d39f861/Documents/Work/Modules/Year 3/LPR 381/Linear-Programming-101/Exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="561" documentId="13_ncr:1_{2AD2EC19-E879-447A-B539-4C9D00CDAF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE1194B6-6587-4384-8308-31429BFE40F5}"/>
+  <xr:revisionPtr revIDLastSave="564" documentId="13_ncr:1_{2AD2EC19-E879-447A-B539-4C9D00CDAF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B78D423-8EFD-435A-A6AE-C709B6C9EF16}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Branch &amp; Bound" sheetId="1" r:id="rId1"/>
@@ -402,9 +402,6 @@
     <t>select pivot row: most negative RHS</t>
   </si>
   <si>
-    <t>select pivot column, ratio of ABSOLUTE (Z/Pivot Row) *only on negative values</t>
-  </si>
-  <si>
     <t>T-1</t>
   </si>
   <si>
@@ -641,9 +638,6 @@
     <t>&gt;=</t>
   </si>
   <si>
-    <t>always fits</t>
-  </si>
-  <si>
     <t>&lt;=</t>
   </si>
   <si>
@@ -920,6 +914,12 @@
   </si>
   <si>
     <t>MIN problem</t>
+  </si>
+  <si>
+    <t>Use this as objective function</t>
+  </si>
+  <si>
+    <t>select pivot column (smallest value), ratio of ABSOLUTE (Z/Pivot Row) *only on negative values</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1424,18 +1424,24 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1475,79 +1481,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1760,8 +1756,8 @@
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3097002" cy="252826"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1948,7 +1944,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -2013,8 +2009,8 @@
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5076825" cy="252826"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -2263,7 +2259,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -2508,8 +2504,8 @@
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4526047" cy="267381"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -2771,7 +2767,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -2836,8 +2832,8 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2467855" cy="252826"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -2962,7 +2958,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -3033,8 +3029,8 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2416367" cy="252826"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -3159,7 +3155,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -8400,8 +8396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P62" sqref="P62"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8411,130 +8407,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="66"/>
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="78"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="69"/>
+      <c r="A2" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="81"/>
     </row>
     <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="69"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="81"/>
     </row>
     <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="72"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="84"/>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="66"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="74"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
     </row>
     <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="76"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="88"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62"/>
-      <c r="O12" s="60" t="s">
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
+      <c r="O12" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="62"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="91"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
@@ -8682,11 +8678,11 @@
       <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
       <c r="H17" t="s">
@@ -8713,15 +8709,15 @@
     </row>
     <row r="20" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="91"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
@@ -8798,17 +8794,17 @@
       <c r="H28" s="9"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="91"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
@@ -8919,7 +8915,7 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>45</v>
@@ -9123,7 +9119,7 @@
       </c>
       <c r="I45" s="5"/>
       <c r="J45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
@@ -9183,40 +9179,33 @@
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A55" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="61"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="62"/>
-      <c r="R55" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="S55" s="61"/>
-      <c r="T55" s="61"/>
-      <c r="U55" s="61"/>
-      <c r="V55" s="61"/>
-      <c r="W55" s="61"/>
-      <c r="X55" s="61"/>
-      <c r="Y55" s="61"/>
-      <c r="Z55" s="62"/>
+      <c r="A55" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="90"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="91"/>
+      <c r="R55" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="S55" s="90"/>
+      <c r="T55" s="90"/>
+      <c r="U55" s="90"/>
+      <c r="V55" s="90"/>
+      <c r="W55" s="90"/>
+      <c r="X55" s="90"/>
+      <c r="Y55" s="90"/>
+      <c r="Z55" s="91"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
       <c r="I56" s="5"/>
       <c r="R56" s="4"/>
-      <c r="S56" s="110"/>
-      <c r="T56" s="110"/>
-      <c r="U56" s="110"/>
-      <c r="V56" s="110"/>
-      <c r="W56" s="110"/>
-      <c r="X56" s="110"/>
-      <c r="Y56" s="110"/>
       <c r="Z56" s="5"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.35">
@@ -9256,7 +9245,7 @@
         <v>48</v>
       </c>
       <c r="X57" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y57" s="20" t="s">
         <v>27</v>
@@ -9288,19 +9277,18 @@
       <c r="S58" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T58" s="110">
-        <v>0</v>
-      </c>
-      <c r="U58" s="110">
-        <v>0</v>
-      </c>
-      <c r="V58" s="110">
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
         <v>1.2499999999999996</v>
       </c>
-      <c r="W58" s="110">
+      <c r="W58">
         <v>0.75</v>
       </c>
-      <c r="X58" s="110"/>
       <c r="Y58" s="5">
         <v>41.25</v>
       </c>
@@ -9331,19 +9319,18 @@
       <c r="S59" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T59" s="110">
-        <v>0</v>
-      </c>
-      <c r="U59" s="110">
-        <v>1</v>
-      </c>
-      <c r="V59" s="110">
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="V59">
         <v>2.25</v>
       </c>
-      <c r="W59" s="110">
+      <c r="W59">
         <v>-0.25</v>
       </c>
-      <c r="X59" s="110"/>
       <c r="Y59" s="5">
         <v>2.25</v>
       </c>
@@ -9374,19 +9361,18 @@
       <c r="S60" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T60" s="111">
-        <v>1</v>
-      </c>
-      <c r="U60" s="110">
-        <v>0</v>
-      </c>
-      <c r="V60" s="110">
+      <c r="T60" s="35">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
         <v>-1.25</v>
       </c>
-      <c r="W60" s="110">
+      <c r="W60">
         <v>0.25</v>
       </c>
-      <c r="X60" s="110"/>
       <c r="Y60" s="5">
         <v>3.75</v>
       </c>
@@ -9447,13 +9433,6 @@
       <c r="A62" s="4"/>
       <c r="I62" s="5"/>
       <c r="R62" s="4"/>
-      <c r="S62" s="110"/>
-      <c r="T62" s="110"/>
-      <c r="U62" s="110"/>
-      <c r="V62" s="110"/>
-      <c r="W62" s="110"/>
-      <c r="X62" s="110"/>
-      <c r="Y62" s="110"/>
       <c r="Z62" s="5"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.35">
@@ -9493,7 +9472,7 @@
         <v>48</v>
       </c>
       <c r="X63" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y63" s="20" t="s">
         <v>27</v>
@@ -9525,19 +9504,18 @@
       <c r="S64" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T64" s="110">
-        <v>0</v>
-      </c>
-      <c r="U64" s="110">
-        <v>0</v>
-      </c>
-      <c r="V64" s="110">
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
         <v>1.2499999999999996</v>
       </c>
-      <c r="W64" s="110">
+      <c r="W64">
         <v>0.75</v>
       </c>
-      <c r="X64" s="110"/>
       <c r="Y64" s="5">
         <v>41.25</v>
       </c>
@@ -9568,19 +9546,18 @@
       <c r="S65" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T65" s="110">
-        <v>0</v>
-      </c>
-      <c r="U65" s="110">
-        <v>1</v>
-      </c>
-      <c r="V65" s="110">
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>1</v>
+      </c>
+      <c r="V65">
         <v>2.25</v>
       </c>
-      <c r="W65" s="110">
+      <c r="W65">
         <v>-0.25</v>
       </c>
-      <c r="X65" s="110"/>
       <c r="Y65" s="5">
         <v>2.25</v>
       </c>
@@ -9611,19 +9588,18 @@
       <c r="S66" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T66" s="111">
-        <v>1</v>
-      </c>
-      <c r="U66" s="110">
-        <v>0</v>
-      </c>
-      <c r="V66" s="110">
+      <c r="T66" s="35">
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
         <v>-1.25</v>
       </c>
-      <c r="W66" s="110">
+      <c r="W66">
         <v>0.25</v>
       </c>
-      <c r="X66" s="110"/>
       <c r="Y66" s="5">
         <v>3.75</v>
       </c>
@@ -9657,19 +9633,19 @@
       <c r="S67" s="4">
         <v>3</v>
       </c>
-      <c r="T67" s="111">
-        <v>1</v>
-      </c>
-      <c r="U67" s="110">
-        <v>0</v>
-      </c>
-      <c r="V67" s="110">
-        <v>0</v>
-      </c>
-      <c r="W67" s="110">
-        <v>0</v>
-      </c>
-      <c r="X67" s="110">
+      <c r="T67" s="35">
+        <v>1</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67" s="5">
@@ -9712,7 +9688,7 @@
       </c>
       <c r="R68" s="4"/>
       <c r="S68" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T68" s="38">
         <f>(T66-T67)</f>
@@ -9744,32 +9720,18 @@
       <c r="A69" s="4"/>
       <c r="I69" s="5"/>
       <c r="R69" s="4"/>
-      <c r="S69" s="110"/>
-      <c r="T69" s="110"/>
-      <c r="U69" s="110"/>
-      <c r="V69" s="110"/>
-      <c r="W69" s="110"/>
-      <c r="X69" s="110"/>
-      <c r="Y69" s="110"/>
       <c r="Z69" s="5"/>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A70" s="4"/>
       <c r="I70" s="5"/>
       <c r="R70" s="4"/>
-      <c r="S70" s="110"/>
-      <c r="T70" s="110"/>
-      <c r="U70" s="110"/>
-      <c r="V70" s="110"/>
-      <c r="W70" s="110"/>
-      <c r="X70" s="110"/>
-      <c r="Y70" s="110"/>
       <c r="Z70" s="5"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A71" s="4"/>
       <c r="B71" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" s="19" t="s">
         <v>45</v>
@@ -9805,7 +9767,7 @@
         <v>48</v>
       </c>
       <c r="X71" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y71" s="20" t="s">
         <v>27</v>
@@ -9840,19 +9802,18 @@
       <c r="S72" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T72" s="110">
-        <v>0</v>
-      </c>
-      <c r="U72" s="110">
-        <v>0</v>
-      </c>
-      <c r="V72" s="112">
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72" s="44">
         <v>1.2499999999999996</v>
       </c>
-      <c r="W72" s="110">
+      <c r="W72">
         <v>0.75</v>
       </c>
-      <c r="X72" s="110"/>
       <c r="Y72" s="5">
         <v>41.25</v>
       </c>
@@ -9886,19 +9847,18 @@
       <c r="S73" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T73" s="110">
-        <v>0</v>
-      </c>
-      <c r="U73" s="110">
-        <v>1</v>
-      </c>
-      <c r="V73" s="112">
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>1</v>
+      </c>
+      <c r="V73" s="44">
         <v>2.25</v>
       </c>
-      <c r="W73" s="110">
+      <c r="W73">
         <v>-0.25</v>
       </c>
-      <c r="X73" s="110"/>
       <c r="Y73" s="5">
         <v>2.25</v>
       </c>
@@ -9926,25 +9886,24 @@
       </c>
       <c r="I74" s="5"/>
       <c r="J74" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="R74" s="4"/>
       <c r="S74" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T74" s="110">
-        <v>1</v>
-      </c>
-      <c r="U74" s="110">
-        <v>0</v>
-      </c>
-      <c r="V74" s="112">
+      <c r="T74">
+        <v>1</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74" s="44">
         <v>-1.25</v>
       </c>
-      <c r="W74" s="110">
+      <c r="W74">
         <v>0.25</v>
       </c>
-      <c r="X74" s="110"/>
       <c r="Y74" s="5">
         <v>3.75</v>
       </c>
@@ -10006,35 +9965,22 @@
       </c>
       <c r="I76" s="5"/>
       <c r="R76" s="4"/>
-      <c r="S76" s="110"/>
-      <c r="T76" s="110"/>
-      <c r="U76" s="110"/>
-      <c r="V76" s="112">
+      <c r="V76" s="44">
         <f>ABS(V72/V75)</f>
         <v>0.99999999999999967</v>
       </c>
-      <c r="W76" s="110"/>
-      <c r="X76" s="110"/>
-      <c r="Y76" s="110"/>
       <c r="Z76" s="5"/>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A77" s="4"/>
       <c r="I77" s="5"/>
       <c r="R77" s="4"/>
-      <c r="S77" s="110"/>
-      <c r="T77" s="110"/>
-      <c r="U77" s="110"/>
-      <c r="V77" s="110"/>
-      <c r="W77" s="110"/>
-      <c r="X77" s="110"/>
-      <c r="Y77" s="110"/>
       <c r="Z77" s="5"/>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A78" s="4"/>
       <c r="B78" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C78" s="19" t="s">
         <v>45</v>
@@ -10070,7 +10016,7 @@
         <v>48</v>
       </c>
       <c r="X78" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y78" s="20" t="s">
         <v>27</v>
@@ -10111,23 +10057,23 @@
       <c r="S79" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T79" s="110">
+      <c r="T79">
         <f>T72-($V72*T$82)</f>
         <v>0</v>
       </c>
-      <c r="U79" s="110">
+      <c r="U79">
         <f t="shared" ref="U79:Y79" si="8">U72-($V72*U$82)</f>
         <v>0</v>
       </c>
-      <c r="V79" s="110">
+      <c r="V79">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W79" s="110">
+      <c r="W79">
         <f t="shared" si="8"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="X79" s="110">
+      <c r="X79">
         <f t="shared" si="8"/>
         <v>0.99999999999999967</v>
       </c>
@@ -10171,23 +10117,23 @@
       <c r="S80" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T80" s="110">
+      <c r="T80">
         <f t="shared" ref="T80:Y80" si="10">T73-($V73*T$82)</f>
         <v>0</v>
       </c>
-      <c r="U80" s="113">
+      <c r="U80" s="47">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="V80" s="110">
+      <c r="V80">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W80" s="110">
+      <c r="W80">
         <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
-      <c r="X80" s="110">
+      <c r="X80">
         <f t="shared" si="10"/>
         <v>1.8</v>
       </c>
@@ -10197,7 +10143,7 @@
       </c>
       <c r="Z80" s="5"/>
       <c r="AA80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.35">
@@ -10234,23 +10180,23 @@
       <c r="S81" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T81" s="113">
+      <c r="T81" s="47">
         <f t="shared" ref="T81:Y81" si="12">T74-($V74*T$82)</f>
         <v>1</v>
       </c>
-      <c r="U81" s="110">
+      <c r="U81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V81" s="110">
+      <c r="V81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W81" s="110">
+      <c r="W81">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="X81" s="110">
+      <c r="X81">
         <f t="shared" si="12"/>
         <v>-1</v>
       </c>
@@ -10324,33 +10270,16 @@
       <c r="A83" s="4"/>
       <c r="I83" s="5"/>
       <c r="R83" s="4"/>
-      <c r="S83" s="110"/>
-      <c r="T83" s="110"/>
-      <c r="U83" s="110"/>
-      <c r="V83" s="110"/>
-      <c r="W83" s="110"/>
-      <c r="X83" s="110"/>
-      <c r="Y83" s="110"/>
       <c r="Z83" s="5"/>
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A84" s="4"/>
       <c r="B84" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I84" s="5"/>
-      <c r="Q84" s="110"/>
       <c r="R84" s="4"/>
-      <c r="S84" s="110"/>
-      <c r="T84" s="110"/>
-      <c r="U84" s="110"/>
-      <c r="V84" s="110"/>
-      <c r="W84" s="110"/>
-      <c r="X84" s="110"/>
-      <c r="Y84" s="110"/>
       <c r="Z84" s="5"/>
-      <c r="AA84" s="110"/>
-      <c r="AB84" s="110"/>
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A85" s="7"/>
@@ -10362,7 +10291,6 @@
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="I85" s="9"/>
-      <c r="Q85" s="110"/>
       <c r="R85" s="7"/>
       <c r="S85" s="8"/>
       <c r="T85" s="8"/>
@@ -10372,81 +10300,18 @@
       <c r="X85" s="8"/>
       <c r="Y85" s="8"/>
       <c r="Z85" s="9"/>
-      <c r="AA85" s="110"/>
-      <c r="AB85" s="110"/>
-    </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="Q86" s="110"/>
-      <c r="R86" s="110"/>
-      <c r="S86" s="110"/>
-      <c r="T86" s="110"/>
-      <c r="U86" s="110"/>
-      <c r="V86" s="110"/>
-      <c r="W86" s="110"/>
-      <c r="X86" s="110"/>
-      <c r="Y86" s="110"/>
-      <c r="Z86" s="110"/>
-      <c r="AA86" s="110"/>
-      <c r="AB86" s="110"/>
-    </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="Q87" s="110"/>
-      <c r="R87" s="110"/>
-      <c r="S87" s="110"/>
-      <c r="T87" s="110"/>
-      <c r="U87" s="110"/>
-      <c r="V87" s="110"/>
-      <c r="W87" s="110"/>
-      <c r="X87" s="110"/>
-      <c r="Y87" s="110"/>
-      <c r="Z87" s="110"/>
-      <c r="AA87" s="110"/>
-      <c r="AB87" s="110"/>
-    </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="Q88" s="110"/>
-      <c r="R88" s="110"/>
-      <c r="S88" s="110"/>
-      <c r="T88" s="110"/>
-      <c r="U88" s="110"/>
-      <c r="V88" s="110"/>
-      <c r="W88" s="110"/>
-      <c r="X88" s="110"/>
-      <c r="Y88" s="110"/>
-      <c r="Z88" s="110"/>
-      <c r="AA88" s="110"/>
-      <c r="AB88" s="110"/>
-    </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="Q89" s="110"/>
-      <c r="R89" s="110"/>
-      <c r="S89" s="110"/>
-      <c r="T89" s="110"/>
-      <c r="U89" s="110"/>
-      <c r="V89" s="110"/>
-      <c r="W89" s="110"/>
-      <c r="X89" s="110"/>
-      <c r="Y89" s="110"/>
-      <c r="Z89" s="110"/>
-      <c r="AA89" s="110"/>
-      <c r="AB89" s="110"/>
-    </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="Q90" s="110"/>
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="Q91" s="110"/>
-      <c r="R91" s="80" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB91" s="80" t="s">
-        <v>129</v>
+      <c r="R91" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB91" s="62" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="Q92" s="110"/>
       <c r="R92" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S92" t="s">
         <v>45</v>
@@ -10461,16 +10326,16 @@
         <v>48</v>
       </c>
       <c r="W92" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="X92" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Y92" t="s">
         <v>27</v>
       </c>
       <c r="AB92" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AC92" t="s">
         <v>45</v>
@@ -10485,17 +10350,16 @@
         <v>48</v>
       </c>
       <c r="AG92" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AH92" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AI92" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="Q93" s="110"/>
       <c r="R93" t="s">
         <v>50</v>
       </c>
@@ -10540,14 +10404,13 @@
       </c>
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="Q94" s="110"/>
       <c r="R94">
         <v>1</v>
       </c>
       <c r="S94">
         <v>0</v>
       </c>
-      <c r="T94" s="81">
+      <c r="T94" s="63">
         <v>1</v>
       </c>
       <c r="U94">
@@ -10679,7 +10542,7 @@
       <c r="S97">
         <v>0</v>
       </c>
-      <c r="T97" s="81">
+      <c r="T97" s="63">
         <v>1</v>
       </c>
       <c r="U97">
@@ -10724,7 +10587,7 @@
     </row>
     <row r="99" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R99" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S99" t="s">
         <v>45</v>
@@ -10739,16 +10602,16 @@
         <v>48</v>
       </c>
       <c r="W99" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="X99" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Y99" t="s">
         <v>27</v>
       </c>
       <c r="AB99" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AC99" t="s">
         <v>45</v>
@@ -10763,10 +10626,10 @@
         <v>48</v>
       </c>
       <c r="AG99" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AH99" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AI99" t="s">
         <v>27</v>
@@ -10788,7 +10651,7 @@
       <c r="V100">
         <v>0.99999999999999989</v>
       </c>
-      <c r="W100" s="79">
+      <c r="W100" s="61">
         <v>0.99999999999999967</v>
       </c>
       <c r="Y100">
@@ -10832,7 +10695,7 @@
       <c r="V101">
         <v>0.2</v>
       </c>
-      <c r="W101" s="79">
+      <c r="W101" s="61">
         <v>1.8</v>
       </c>
       <c r="Y101">
@@ -10876,7 +10739,7 @@
       <c r="V102">
         <v>0</v>
       </c>
-      <c r="W102" s="79">
+      <c r="W102" s="61">
         <v>-1</v>
       </c>
       <c r="Y102">
@@ -10920,7 +10783,7 @@
       <c r="V103">
         <v>-0.2</v>
       </c>
-      <c r="W103" s="79">
+      <c r="W103" s="61">
         <v>-0.8</v>
       </c>
       <c r="Y103">
@@ -10949,69 +10812,69 @@
       </c>
     </row>
     <row r="104" spans="18:36" x14ac:dyDescent="0.35">
-      <c r="R104" s="79">
+      <c r="R104" s="61">
         <v>4</v>
       </c>
-      <c r="S104" s="79">
-        <f>(S94-S97)*-1</f>
-        <v>0</v>
-      </c>
-      <c r="T104" s="79">
+      <c r="S104" s="61">
+        <f t="shared" ref="S104:Y104" si="15">(S94-S97)*-1</f>
+        <v>0</v>
+      </c>
+      <c r="T104" s="61">
         <f>(T94-T97)*-1</f>
         <v>0</v>
       </c>
-      <c r="U104" s="79">
-        <f>(U94-U97)*-1</f>
-        <v>0</v>
-      </c>
-      <c r="V104" s="79">
-        <f>(V94-V97)*-1</f>
+      <c r="U104" s="61">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="V104" s="61">
+        <f t="shared" si="15"/>
         <v>-0.2</v>
       </c>
-      <c r="W104" s="79">
-        <f>(W94-W97)*-1</f>
+      <c r="W104" s="61">
+        <f t="shared" si="15"/>
         <v>-1.8</v>
       </c>
-      <c r="X104" s="79">
-        <f>(X94-X97)*-1</f>
-        <v>1</v>
-      </c>
-      <c r="Y104" s="79">
-        <f>(Y94-Y97)*-1</f>
+      <c r="X104" s="61">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Y104" s="61">
+        <f t="shared" si="15"/>
         <v>-0.8</v>
       </c>
-      <c r="AB104" s="81">
+      <c r="AB104" s="63">
         <v>4</v>
       </c>
-      <c r="AC104" s="81">
-        <v>0</v>
-      </c>
-      <c r="AD104" s="81">
-        <f>AD94-AD97</f>
-        <v>0</v>
-      </c>
-      <c r="AE104" s="81">
-        <f>AE94-AE97</f>
-        <v>0</v>
-      </c>
-      <c r="AF104" s="81">
-        <f>AF94-AF97</f>
+      <c r="AC104" s="63">
+        <v>0</v>
+      </c>
+      <c r="AD104" s="63">
+        <f t="shared" ref="AD104:AI104" si="16">AD94-AD97</f>
+        <v>0</v>
+      </c>
+      <c r="AE104" s="63">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AF104" s="63">
+        <f t="shared" si="16"/>
         <v>0.2</v>
       </c>
-      <c r="AG104" s="81">
-        <f>AG94-AG97</f>
+      <c r="AG104" s="63">
+        <f t="shared" si="16"/>
         <v>1.8</v>
       </c>
-      <c r="AH104" s="81">
-        <f>AH94-AH97</f>
-        <v>1</v>
-      </c>
-      <c r="AI104" s="81">
-        <f>AI94-AI97</f>
+      <c r="AH104" s="63">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AI104" s="63">
+        <f t="shared" si="16"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="AJ104" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="18:36" x14ac:dyDescent="0.35">
@@ -11019,14 +10882,14 @@
         <f>ABS(V100/V104)</f>
         <v>4.9999999999999991</v>
       </c>
-      <c r="W105" s="79">
+      <c r="W105" s="61">
         <f>ABS(W100/W104)</f>
         <v>0.55555555555555536</v>
       </c>
     </row>
     <row r="107" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R107" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S107" t="s">
         <v>45</v>
@@ -11041,10 +10904,10 @@
         <v>48</v>
       </c>
       <c r="W107" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="X107" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Y107" t="s">
         <v>27</v>
@@ -11055,31 +10918,31 @@
         <v>50</v>
       </c>
       <c r="S108" t="e">
-        <f>S100-($O100*S$60)</f>
+        <f t="shared" ref="S108:Y111" si="17">S100-($O100*S$60)</f>
         <v>#VALUE!</v>
       </c>
       <c r="T108">
-        <f>T100-($O100*T$60)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U108">
-        <f>U100-($O100*U$60)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V108">
-        <f>V100-($O100*V$60)</f>
+        <f t="shared" si="17"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="W108">
-        <f>W100-($O100*W$60)</f>
+        <f t="shared" si="17"/>
         <v>0.99999999999999967</v>
       </c>
       <c r="X108">
-        <f>X100-($O100*X$60)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y108">
-        <f>Y100-($O100*Y$60)</f>
+        <f t="shared" si="17"/>
         <v>41</v>
       </c>
     </row>
@@ -11088,31 +10951,31 @@
         <v>1</v>
       </c>
       <c r="S109" t="e">
-        <f>S101-($O101*S$60)</f>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T109" s="78">
-        <f>T101-($O101*T$60)</f>
+      <c r="T109" s="60">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U109">
-        <f>U101-($O101*U$60)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V109">
-        <f>V101-($O101*V$60)</f>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
       <c r="W109">
-        <f>W101-($O101*W$60)</f>
+        <f t="shared" si="17"/>
         <v>1.8</v>
       </c>
       <c r="X109">
-        <f>X101-($O101*X$60)</f>
-        <v>0</v>
-      </c>
-      <c r="Y109" s="78">
-        <f>Y101-($O101*Y$60)</f>
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y109" s="60">
+        <f t="shared" si="17"/>
         <v>1.8</v>
       </c>
     </row>
@@ -11120,32 +10983,32 @@
       <c r="R110">
         <v>2</v>
       </c>
-      <c r="S110" s="78" t="e">
-        <f>S102-($O102*S$60)</f>
+      <c r="S110" s="60" t="e">
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="T110">
-        <f>T102-($O102*T$60)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U110">
-        <f>U102-($O102*U$60)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V110">
-        <f>V102-($O102*V$60)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W110">
-        <f>W102-($O102*W$60)</f>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="X110">
-        <f>X102-($O102*X$60)</f>
-        <v>0</v>
-      </c>
-      <c r="Y110" s="80">
-        <f>Y102-($O102*Y$60)</f>
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y110" s="62">
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
     </row>
@@ -11154,31 +11017,31 @@
         <v>3</v>
       </c>
       <c r="S111" t="e">
-        <f>S103-($O103*S$60)</f>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="T111">
-        <f>T103-($O103*T$60)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U111">
-        <f>U103-($O103*U$60)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="V111">
-        <f>V103-($O103*V$60)</f>
+        <f t="shared" si="17"/>
         <v>-0.2</v>
       </c>
       <c r="W111">
-        <f>W103-($O103*W$60)</f>
+        <f t="shared" si="17"/>
         <v>-0.8</v>
       </c>
       <c r="X111">
-        <f>X103-($O103*X$60)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y111">
-        <f>Y103-($O103*Y$60)</f>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
     </row>
@@ -11187,45 +11050,45 @@
         <v>4</v>
       </c>
       <c r="S112" t="e">
-        <f>S104/$O$52</f>
+        <f t="shared" ref="S112:Y112" si="18">S104/$O$52</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T112" t="e">
-        <f>T104/$O$52</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U112" t="e">
-        <f>U104/$O$52</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V112" t="e">
-        <f>V104/$O$52</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W112" t="e">
-        <f>W104/$O$52</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X112" t="e">
-        <f>X104/$O$52</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y112" t="e">
-        <f>Y104/$O$52</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="114" spans="18:36" x14ac:dyDescent="0.35">
-      <c r="R114" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB114" s="80" t="s">
-        <v>125</v>
+      <c r="R114" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB114" s="62" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R115" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S115" t="s">
         <v>45</v>
@@ -11240,19 +11103,19 @@
         <v>48</v>
       </c>
       <c r="W115" t="s">
+        <v>120</v>
+      </c>
+      <c r="X115" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y115" t="s">
         <v>122</v>
-      </c>
-      <c r="X115" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y115" t="s">
-        <v>124</v>
       </c>
       <c r="Z115" t="s">
         <v>27</v>
       </c>
       <c r="AB115" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AC115" t="s">
         <v>45</v>
@@ -11267,13 +11130,13 @@
         <v>48</v>
       </c>
       <c r="AG115" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AH115" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AI115" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AJ115" t="s">
         <v>27</v>
@@ -11557,7 +11420,7 @@
     </row>
     <row r="123" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R123" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S123" t="s">
         <v>45</v>
@@ -11568,23 +11431,23 @@
       <c r="U123" t="s">
         <v>47</v>
       </c>
-      <c r="V123" s="79" t="s">
+      <c r="V123" s="61" t="s">
         <v>48</v>
       </c>
       <c r="W123" t="s">
+        <v>120</v>
+      </c>
+      <c r="X123" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y123" t="s">
         <v>122</v>
-      </c>
-      <c r="X123" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y123" t="s">
-        <v>124</v>
       </c>
       <c r="Z123" t="s">
         <v>27</v>
       </c>
       <c r="AB123" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AC123" t="s">
         <v>45</v>
@@ -11599,13 +11462,13 @@
         <v>48</v>
       </c>
       <c r="AG123" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH123" s="79" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="AH123" s="61" t="s">
+        <v>119</v>
       </c>
       <c r="AI123" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AJ123" t="s">
         <v>27</v>
@@ -11624,7 +11487,7 @@
       <c r="U124">
         <v>0</v>
       </c>
-      <c r="V124" s="79">
+      <c r="V124" s="61">
         <v>0.88888888888888884</v>
       </c>
       <c r="W124">
@@ -11654,7 +11517,7 @@
       <c r="AG124">
         <v>0</v>
       </c>
-      <c r="AH124" s="79">
+      <c r="AH124" s="61">
         <v>0.55555555555555536</v>
       </c>
       <c r="AJ124">
@@ -11674,7 +11537,7 @@
       <c r="U125">
         <v>0</v>
       </c>
-      <c r="V125" s="79">
+      <c r="V125" s="61">
         <v>0</v>
       </c>
       <c r="W125">
@@ -11704,7 +11567,7 @@
       <c r="AG125">
         <v>0</v>
       </c>
-      <c r="AH125" s="79">
+      <c r="AH125" s="61">
         <v>1</v>
       </c>
       <c r="AJ125">
@@ -11724,7 +11587,7 @@
       <c r="U126">
         <v>0</v>
       </c>
-      <c r="V126" s="79">
+      <c r="V126" s="61">
         <v>0.11111111111111112</v>
       </c>
       <c r="W126">
@@ -11754,7 +11617,7 @@
       <c r="AG126">
         <v>0</v>
       </c>
-      <c r="AH126" s="79">
+      <c r="AH126" s="61">
         <v>-0.55555555555555558</v>
       </c>
       <c r="AJ126">
@@ -11774,7 +11637,7 @@
       <c r="U127">
         <v>1</v>
       </c>
-      <c r="V127" s="79">
+      <c r="V127" s="61">
         <v>-0.1111111111111111</v>
       </c>
       <c r="W127">
@@ -11804,7 +11667,7 @@
       <c r="AG127">
         <v>0</v>
       </c>
-      <c r="AH127" s="79">
+      <c r="AH127" s="61">
         <v>-0.44444444444444448</v>
       </c>
       <c r="AJ127">
@@ -11824,7 +11687,7 @@
       <c r="U128">
         <v>0</v>
       </c>
-      <c r="V128" s="79">
+      <c r="V128" s="61">
         <v>0.11111111111111112</v>
       </c>
       <c r="W128">
@@ -11854,7 +11717,7 @@
       <c r="AG128">
         <v>1</v>
       </c>
-      <c r="AH128" s="79">
+      <c r="AH128" s="61">
         <v>-0.55555555555555558</v>
       </c>
       <c r="AJ128">
@@ -11862,80 +11725,80 @@
       </c>
     </row>
     <row r="129" spans="18:36" x14ac:dyDescent="0.35">
-      <c r="R129" s="79">
+      <c r="R129" s="61">
         <v>5</v>
       </c>
-      <c r="S129" s="79">
-        <f>(S118-S121)*-1</f>
-        <v>0</v>
-      </c>
-      <c r="T129" s="79">
-        <f>(T118-T121)*-1</f>
-        <v>0</v>
-      </c>
-      <c r="U129" s="79">
-        <f>(U118-U121)*-1</f>
-        <v>0</v>
-      </c>
-      <c r="V129" s="79">
-        <f>(V118-V121)*-1</f>
+      <c r="S129" s="61">
+        <f t="shared" ref="S129:Z129" si="19">(S118-S121)*-1</f>
+        <v>0</v>
+      </c>
+      <c r="T129" s="61">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U129" s="61">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V129" s="61">
+        <f t="shared" si="19"/>
         <v>-0.11111111111111112</v>
       </c>
-      <c r="W129" s="79">
-        <f>(W118-W121)*-1</f>
-        <v>0</v>
-      </c>
-      <c r="X129" s="79">
-        <f>(X118-X121)*-1</f>
+      <c r="W129" s="61">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X129" s="61">
+        <f t="shared" si="19"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="Y129" s="79">
-        <f>(Y118-Y121)*-1</f>
-        <v>1</v>
-      </c>
-      <c r="Z129" s="79">
-        <f>(Z118-Z121)*-1</f>
+      <c r="Y129" s="61">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="Z129" s="61">
+        <f t="shared" si="19"/>
         <v>-0.44444444444444464</v>
       </c>
-      <c r="AB129" s="79">
+      <c r="AB129" s="61">
         <v>5</v>
       </c>
-      <c r="AC129" s="79">
-        <f>AC118-AC121</f>
-        <v>0</v>
-      </c>
-      <c r="AD129" s="79">
-        <f>AD118-AD121</f>
-        <v>0</v>
-      </c>
-      <c r="AE129" s="79">
-        <f>AE118-AE121</f>
-        <v>0</v>
-      </c>
-      <c r="AF129" s="79">
-        <f>AF118-AF121</f>
+      <c r="AC129" s="61">
+        <f t="shared" ref="AC129:AJ129" si="20">AC118-AC121</f>
+        <v>0</v>
+      </c>
+      <c r="AD129" s="61">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AE129" s="61">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AF129" s="61">
+        <f t="shared" si="20"/>
         <v>0.11111111111111112</v>
       </c>
-      <c r="AG129" s="79">
-        <f>AG118-AG121</f>
-        <v>0</v>
-      </c>
-      <c r="AH129" s="79">
-        <f>AH118-AH121</f>
+      <c r="AG129" s="61">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AH129" s="61">
+        <f t="shared" si="20"/>
         <v>-0.55555555555555558</v>
       </c>
-      <c r="AI129" s="79">
-        <f>AI118-AI121</f>
-        <v>1</v>
-      </c>
-      <c r="AJ129" s="79">
-        <f>AJ118-AJ121</f>
+      <c r="AI129" s="61">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AJ129" s="61">
+        <f t="shared" si="20"/>
         <v>-0.55555555555555536</v>
       </c>
     </row>
     <row r="131" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R131" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S131" t="s">
         <v>45</v>
@@ -11950,19 +11813,19 @@
         <v>48</v>
       </c>
       <c r="W131" t="s">
+        <v>120</v>
+      </c>
+      <c r="X131" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y131" t="s">
         <v>122</v>
-      </c>
-      <c r="X131" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y131" t="s">
-        <v>124</v>
       </c>
       <c r="Z131" t="s">
         <v>27</v>
       </c>
       <c r="AB131" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AC131" t="s">
         <v>45</v>
@@ -11977,13 +11840,13 @@
         <v>48</v>
       </c>
       <c r="AG131" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AH131" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AI131" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AJ131" t="s">
         <v>27</v>
@@ -11994,70 +11857,70 @@
         <v>50</v>
       </c>
       <c r="S132">
-        <f>S124-($N124*S$85)</f>
+        <f t="shared" ref="S132:Z136" si="21">S124-($N124*S$85)</f>
         <v>0</v>
       </c>
       <c r="T132">
-        <f>T124-($N124*T$85)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U132">
-        <f>U124-($N124*U$85)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V132">
-        <f>V124-($N124*V$85)</f>
+        <f t="shared" si="21"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="W132">
-        <f>W124-($N124*W$85)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X132">
-        <f>X124-($N124*X$85)</f>
+        <f t="shared" si="21"/>
         <v>0.55555555555555536</v>
       </c>
       <c r="Y132">
-        <f>Y124-($N124*Y$85)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z132">
-        <f>Z124-($N124*Z$85)</f>
+        <f t="shared" si="21"/>
         <v>40.555555555555557</v>
       </c>
       <c r="AB132" t="s">
         <v>50</v>
       </c>
       <c r="AC132">
-        <f>AC124-($Z124*AC$85)</f>
+        <f t="shared" ref="AC132:AJ136" si="22">AC124-($Z124*AC$85)</f>
         <v>0</v>
       </c>
       <c r="AD132">
-        <f>AD124-($Z124*AD$85)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AE132">
-        <f>AE124-($Z124*AE$85)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AF132">
-        <f>AF124-($Z124*AF$85)</f>
+        <f t="shared" si="22"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="AG132">
-        <f>AG124-($Z124*AG$85)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AH132">
-        <f>AH124-($Z124*AH$85)</f>
+        <f t="shared" si="22"/>
         <v>0.55555555555555536</v>
       </c>
       <c r="AI132">
-        <f>AI124-($Z124*AI$85)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AJ132">
-        <f>AJ124-($Z124*AJ$85)</f>
+        <f t="shared" si="22"/>
         <v>40.555555555555557</v>
       </c>
     </row>
@@ -12066,70 +11929,70 @@
         <v>1</v>
       </c>
       <c r="S133">
-        <f>S125-($N125*S$85)</f>
-        <v>0</v>
-      </c>
-      <c r="T133" s="78">
-        <f>T125-($N125*T$85)</f>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T133" s="60">
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="U133">
-        <f>U125-($N125*U$85)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V133">
-        <f>V125-($N125*V$85)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="W133">
-        <f>W125-($N125*W$85)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X133">
-        <f>X125-($N125*X$85)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="Y133">
-        <f>Y125-($N125*Y$85)</f>
-        <v>0</v>
-      </c>
-      <c r="Z133" s="78">
-        <f>Z125-($N125*Z$85)</f>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Z133" s="60">
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AB133">
         <v>1</v>
       </c>
       <c r="AC133">
-        <f>AC125-($Z125*AC$85)</f>
-        <v>0</v>
-      </c>
-      <c r="AD133" s="78">
-        <f>AD125-($Z125*AD$85)</f>
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AD133" s="60">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AE133">
-        <f>AE125-($Z125*AE$85)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AF133">
-        <f>AF125-($Z125*AF$85)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AG133">
-        <f>AG125-($Z125*AG$85)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AH133">
-        <f>AH125-($Z125*AH$85)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AI133">
-        <f>AI125-($Z125*AI$85)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ133" s="78">
-        <f>AJ125-($Z125*AJ$85)</f>
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AJ133" s="60">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -12137,71 +12000,71 @@
       <c r="R134">
         <v>2</v>
       </c>
-      <c r="S134" s="78">
-        <f>S126-($N126*S$85)</f>
+      <c r="S134" s="60">
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="T134">
-        <f>T126-($N126*T$85)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U134">
-        <f>U126-($N126*U$85)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V134">
-        <f>V126-($N126*V$85)</f>
+        <f t="shared" si="21"/>
         <v>0.11111111111111112</v>
       </c>
       <c r="W134">
-        <f>W126-($N126*W$85)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X134">
-        <f>X126-($N126*X$85)</f>
+        <f t="shared" si="21"/>
         <v>-0.55555555555555558</v>
       </c>
       <c r="Y134">
-        <f>Y126-($N126*Y$85)</f>
-        <v>0</v>
-      </c>
-      <c r="Z134" s="78">
-        <f>Z126-($N126*Z$85)</f>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Z134" s="60">
+        <f t="shared" si="21"/>
         <v>4.4444444444444446</v>
       </c>
       <c r="AB134">
         <v>2</v>
       </c>
-      <c r="AC134" s="78">
-        <f>AC126-($Z126*AC$85)</f>
+      <c r="AC134" s="60">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AD134">
-        <f>AD126-($Z126*AD$85)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AE134">
-        <f>AE126-($Z126*AE$85)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AF134">
-        <f>AF126-($Z126*AF$85)</f>
+        <f t="shared" si="22"/>
         <v>0.11111111111111112</v>
       </c>
       <c r="AG134">
-        <f>AG126-($Z126*AG$85)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AH134">
-        <f>AH126-($Z126*AH$85)</f>
+        <f t="shared" si="22"/>
         <v>-0.55555555555555558</v>
       </c>
       <c r="AI134">
-        <f>AI126-($Z126*AI$85)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ134" s="78">
-        <f>AJ126-($Z126*AJ$85)</f>
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AJ134" s="60">
+        <f t="shared" si="22"/>
         <v>4.4444444444444446</v>
       </c>
     </row>
@@ -12210,70 +12073,70 @@
         <v>3</v>
       </c>
       <c r="S135">
-        <f>S127-($N127*S$85)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T135">
-        <f>T127-($N127*T$85)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U135">
-        <f>U127-($N127*U$85)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V135">
-        <f>V127-($N127*V$85)</f>
+        <f t="shared" si="21"/>
         <v>-0.1111111111111111</v>
       </c>
       <c r="W135">
-        <f>W127-($N127*W$85)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X135">
-        <f>X127-($N127*X$85)</f>
+        <f t="shared" si="21"/>
         <v>-0.44444444444444448</v>
       </c>
       <c r="Y135">
-        <f>Y127-($N127*Y$85)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z135">
-        <f>Z127-($N127*Z$85)</f>
+        <f t="shared" si="21"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="AB135">
         <v>3</v>
       </c>
       <c r="AC135">
-        <f>AC127-($Z127*AC$85)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AD135">
-        <f>AD127-($Z127*AD$85)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AE135">
-        <f>AE127-($Z127*AE$85)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AF135">
-        <f>AF127-($Z127*AF$85)</f>
+        <f t="shared" si="22"/>
         <v>-0.1111111111111111</v>
       </c>
       <c r="AG135">
-        <f>AG127-($Z127*AG$85)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AH135">
-        <f>AH127-($Z127*AH$85)</f>
+        <f t="shared" si="22"/>
         <v>-0.44444444444444448</v>
       </c>
       <c r="AI135">
-        <f>AI127-($Z127*AI$85)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AJ135">
-        <f>AJ127-($Z127*AJ$85)</f>
+        <f t="shared" si="22"/>
         <v>0.55555555555555558</v>
       </c>
     </row>
@@ -12282,70 +12145,70 @@
         <v>4</v>
       </c>
       <c r="S136">
-        <f>S128-($N128*S$85)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T136">
-        <f>T128-($N128*T$85)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U136">
-        <f>U128-($N128*U$85)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V136">
-        <f>V128-($N128*V$85)</f>
+        <f t="shared" si="21"/>
         <v>0.11111111111111112</v>
       </c>
       <c r="W136">
-        <f>W128-($N128*W$85)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="X136">
-        <f>X128-($N128*X$85)</f>
+        <f t="shared" si="21"/>
         <v>-0.55555555555555558</v>
       </c>
       <c r="Y136">
-        <f>Y128-($N128*Y$85)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z136">
-        <f>Z128-($N128*Z$85)</f>
+        <f t="shared" si="21"/>
         <v>0.44444444444444448</v>
       </c>
       <c r="AB136">
         <v>4</v>
       </c>
       <c r="AC136">
-        <f>AC128-($Z128*AC$85)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AD136">
-        <f>AD128-($Z128*AD$85)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AE136">
-        <f>AE128-($Z128*AE$85)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AF136">
-        <f>AF128-($Z128*AF$85)</f>
+        <f t="shared" si="22"/>
         <v>0.11111111111111112</v>
       </c>
       <c r="AG136">
-        <f>AG128-($Z128*AG$85)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AH136">
-        <f>AH128-($Z128*AH$85)</f>
+        <f t="shared" si="22"/>
         <v>-0.55555555555555558</v>
       </c>
       <c r="AI136">
-        <f>AI128-($Z128*AI$85)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AJ136">
-        <f>AJ128-($Z128*AJ$85)</f>
+        <f t="shared" si="22"/>
         <v>0.44444444444444448</v>
       </c>
     </row>
@@ -12354,80 +12217,75 @@
         <v>5</v>
       </c>
       <c r="S137" t="e">
-        <f>S129/$N$77</f>
+        <f t="shared" ref="S137:Z137" si="23">S129/$N$77</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T137" t="e">
-        <f>T129/$N$77</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U137" t="e">
-        <f>U129/$N$77</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V137" t="e">
-        <f>V129/$N$77</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W137" t="e">
-        <f>W129/$N$77</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X137" t="e">
-        <f>X129/$N$77</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y137" t="e">
-        <f>Y129/$N$77</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z137" t="e">
-        <f>Z129/$N$77</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB137">
         <v>5</v>
       </c>
       <c r="AC137" t="e">
-        <f>AC129/$Z$77</f>
+        <f t="shared" ref="AC137:AJ137" si="24">AC129/$Z$77</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AD137" t="e">
-        <f>AD129/$Z$77</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE137" t="e">
-        <f>AE129/$Z$77</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF137" t="e">
-        <f>AF129/$Z$77</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG137" t="e">
-        <f>AG129/$Z$77</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH137" t="e">
-        <f>AH129/$Z$77</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI137" t="e">
-        <f>AI129/$Z$77</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ137" t="e">
-        <f>AJ129/$Z$77</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N4"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
     <mergeCell ref="A55:I55"/>
     <mergeCell ref="R55:Z55"/>
     <mergeCell ref="B23:H23"/>
@@ -12435,6 +12293,11 @@
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="O12:U12"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N4"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12446,8 +12309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C809AF-4618-4E6E-A222-F41E34EB970E}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12456,72 +12319,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
+      <c r="A1" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
+      <c r="A5" s="93"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="49"/>
@@ -12547,7 +12410,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="54" t="s">
         <v>45</v>
@@ -12556,19 +12419,19 @@
         <v>46</v>
       </c>
       <c r="D9" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="F9" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="G9" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="H9" s="57" t="s">
         <v>105</v>
-      </c>
-      <c r="H9" s="57" t="s">
-        <v>106</v>
       </c>
       <c r="I9" s="49"/>
       <c r="J9" s="49"/>
@@ -12579,36 +12442,36 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
         <v>87</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="E10" t="s">
         <v>89</v>
       </c>
-      <c r="E10" t="s">
-        <v>90</v>
-      </c>
       <c r="F10" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" t="s">
         <v>89</v>
       </c>
-      <c r="G10" t="s">
-        <v>90</v>
-      </c>
       <c r="H10" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B11" s="56">
         <v>1</v>
@@ -12634,7 +12497,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="55">
         <v>3</v>
@@ -12660,7 +12523,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="55">
         <v>3</v>
@@ -12686,7 +12549,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="55">
         <v>1</v>
@@ -12712,7 +12575,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="56">
         <v>3</v>
@@ -12738,7 +12601,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="52" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B16" s="55">
         <v>1</v>
@@ -12766,7 +12629,7 @@
         <v>5</v>
       </c>
       <c r="J16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K16">
         <v>5</v>
@@ -12774,7 +12637,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" s="55">
         <v>1</v>
@@ -12793,7 +12656,7 @@
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -12801,7 +12664,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" s="55"/>
       <c r="D18" s="55">
@@ -12824,7 +12687,7 @@
         <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -12832,7 +12695,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" s="55"/>
       <c r="C19">
@@ -12852,7 +12715,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -12860,7 +12723,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="56">
         <f t="shared" ref="B20:H20" si="1">AVERAGE(B12:B14)</f>
@@ -12895,18 +12758,18 @@
         <v>2.4666666666666668</v>
       </c>
       <c r="J20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20" t="s">
-        <v>112</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B21" s="55"/>
       <c r="D21" s="55">
@@ -12922,7 +12785,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -12930,7 +12793,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="52" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B22" s="55">
         <v>2</v>
@@ -12956,7 +12819,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B23" s="56"/>
       <c r="C23" s="8">
@@ -12974,7 +12837,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -12982,57 +12845,57 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -13054,40 +12917,40 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="88" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="A2" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="87"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
@@ -13104,10 +12967,10 @@
       <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="K6" s="86"/>
+      <c r="J6" s="97" t="s">
+        <v>141</v>
+      </c>
+      <c r="K6" s="97"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
@@ -13128,11 +12991,11 @@
       <c r="G7">
         <v>41.25</v>
       </c>
-      <c r="J7" s="84" t="s">
-        <v>142</v>
-      </c>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
+      <c r="J7" s="94" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8">
@@ -13153,70 +13016,70 @@
       <c r="G8">
         <v>2.25</v>
       </c>
-      <c r="J8" s="85" t="s">
-        <v>141</v>
-      </c>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
+      <c r="J8" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B9" s="83">
+      <c r="B9" s="65">
         <v>2</v>
       </c>
-      <c r="C9" s="83">
-        <v>1</v>
-      </c>
-      <c r="D9" s="83">
-        <v>0</v>
-      </c>
-      <c r="E9" s="83">
+      <c r="C9" s="65">
+        <v>1</v>
+      </c>
+      <c r="D9" s="65">
+        <v>0</v>
+      </c>
+      <c r="E9" s="65">
         <v>-1.25</v>
       </c>
-      <c r="F9" s="83">
+      <c r="F9" s="65">
         <v>0.25</v>
       </c>
-      <c r="G9" s="83">
+      <c r="G9" s="65">
         <v>3.75</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="J14" s="73" t="s">
-        <v>140</v>
-      </c>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
+      <c r="J14" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="H21" s="73" t="s">
-        <v>138</v>
-      </c>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
+      <c r="H21" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="F22" s="84" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="84"/>
+      <c r="F22" s="94" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="94"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="G24" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
+      <c r="G24" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
         <v>45</v>
@@ -13224,7 +13087,7 @@
       <c r="D27" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="82" t="s">
+      <c r="E27" s="64" t="s">
         <v>47</v>
       </c>
       <c r="F27" t="s">
@@ -13244,7 +13107,7 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" s="82">
+      <c r="E28" s="64">
         <v>1.25</v>
       </c>
       <c r="F28">
@@ -13254,7 +13117,7 @@
         <v>41.25</v>
       </c>
       <c r="I28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.35">
@@ -13267,7 +13130,7 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" s="82">
+      <c r="E29" s="64">
         <v>2.25</v>
       </c>
       <c r="F29">
@@ -13277,7 +13140,7 @@
         <v>2.25</v>
       </c>
       <c r="I29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.35">
@@ -13290,7 +13153,7 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" s="82">
+      <c r="E30" s="64">
         <v>-1.25</v>
       </c>
       <c r="F30">
@@ -13299,35 +13162,35 @@
       <c r="G30">
         <v>3.75</v>
       </c>
-      <c r="I30" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
+      <c r="I30" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B31" s="82">
+      <c r="B31" s="64">
         <v>3</v>
       </c>
-      <c r="C31" s="82">
-        <v>0</v>
-      </c>
-      <c r="D31" s="82">
-        <v>0</v>
-      </c>
-      <c r="E31" s="82">
+      <c r="C31" s="64">
+        <v>0</v>
+      </c>
+      <c r="D31" s="64">
+        <v>0</v>
+      </c>
+      <c r="E31" s="64">
         <v>-0.75</v>
       </c>
-      <c r="F31" s="82">
+      <c r="F31" s="64">
         <v>-0.25</v>
       </c>
-      <c r="G31" s="82">
+      <c r="G31" s="64">
         <v>-0.75</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="E32" s="82">
+      <c r="E32" s="64">
         <f>ABS(E28/E31)</f>
         <v>1.6666666666666667</v>
       </c>
@@ -13338,7 +13201,7 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
         <v>45</v>
@@ -13361,23 +13224,23 @@
         <v>50</v>
       </c>
       <c r="C36">
-        <f>C28-($E28*C$39)</f>
+        <f t="shared" ref="C36:G38" si="0">C28-($E28*C$39)</f>
         <v>0</v>
       </c>
       <c r="D36">
-        <f>D28-($E28*D$39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f>E28-($E28*E$39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F36">
-        <f>F28-($E28*F$39)</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="G36">
-        <f>G28-($E28*G$39)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -13386,55 +13249,55 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <f>C29-($E29*C$39)</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="82">
-        <f>D29-($E29*D$39)</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="64">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E37">
-        <f>E29-($E29*E$39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F37">
-        <f>F29-($E29*F$39)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="G37" s="82">
-        <f>G29-($E29*G$39)</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="73" t="s">
-        <v>131</v>
-      </c>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
+      <c r="G37" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>2</v>
       </c>
-      <c r="C38" s="82">
-        <f>C30-($E30*C$39)</f>
+      <c r="C38" s="64">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D38">
-        <f>D30-($E30*D$39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E38">
-        <f>E30-($E30*E$39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F38">
-        <f>F30-($E30*F$39)</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G38" s="82">
-        <f>G30-($E30*G$39)</f>
+      <c r="G38" s="64">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -13492,55 +13355,55 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="M1" s="106" t="s">
-        <v>171</v>
-      </c>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
+      <c r="M1" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
       <c r="Q1" s="19"/>
       <c r="R1" s="19"/>
       <c r="S1" s="20"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M2" s="4"/>
       <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="95" t="s">
-        <v>148</v>
+        <v>121</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>146</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="M3" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="N3" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="M3" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="N3" s="103" t="s">
-        <v>148</v>
-      </c>
-      <c r="O3" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="P3" s="101" t="s">
-        <v>146</v>
+      <c r="O3" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="P3" s="70" t="s">
+        <v>144</v>
       </c>
       <c r="S3" s="5"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="79">
+        <v>143</v>
+      </c>
+      <c r="C4" s="61">
         <v>1</v>
       </c>
       <c r="D4">
@@ -13550,7 +13413,7 @@
         <v>4</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -13561,29 +13424,29 @@
       <c r="P4" s="5">
         <v>4</v>
       </c>
-      <c r="Q4" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="R4" s="99"/>
-      <c r="S4" s="98"/>
+      <c r="Q4" s="102" t="s">
+        <v>167</v>
+      </c>
+      <c r="R4" s="103"/>
+      <c r="S4" s="104"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="61">
         <v>3</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="M5" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="N5" s="96">
+      <c r="M5" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" s="68">
         <v>5</v>
       </c>
       <c r="O5" s="8">
@@ -13596,22 +13459,22 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="61">
         <v>4</v>
       </c>
       <c r="E6">
         <v>8</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N6">
         <v>5</v>
@@ -13629,44 +13492,44 @@
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="90" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="90"/>
-      <c r="F8" s="92" t="s">
-        <v>166</v>
-      </c>
-      <c r="G8" s="91"/>
+      <c r="B8" s="105" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="105"/>
+      <c r="F8" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="107"/>
       <c r="M8" s="4"/>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="95" t="s">
-        <v>148</v>
+        <v>121</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>146</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" s="94"/>
-      <c r="M9" s="93" t="s">
-        <v>165</v>
-      </c>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
+        <v>144</v>
+      </c>
+      <c r="F9" s="66"/>
+      <c r="M9" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B10" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="79">
+        <v>143</v>
+      </c>
+      <c r="C10" s="61">
         <f>C4-$C$4</f>
         <v>0</v>
       </c>
@@ -13679,29 +13542,29 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>164</v>
-      </c>
-      <c r="M10" s="93" t="s">
-        <v>163</v>
-      </c>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
+        <v>162</v>
+      </c>
+      <c r="M10" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B11" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11">
         <f>C5-$D$5</f>
         <v>2</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="61">
         <f>D5-$D$5</f>
         <v>0</v>
       </c>
-      <c r="E11" s="79">
+      <c r="E11" s="61">
         <f>E5-$D$5</f>
         <v>1</v>
       </c>
@@ -13710,7 +13573,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12">
         <f>C6-$D$6</f>
@@ -13724,39 +13587,39 @@
         <f>E6-$D$6</f>
         <v>4</v>
       </c>
-      <c r="M12" s="93" t="s">
-        <v>162</v>
-      </c>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
+      <c r="M12" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
       <c r="S12" s="5"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="M13" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="90" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="90"/>
-      <c r="F14" s="92" t="s">
-        <v>160</v>
-      </c>
-      <c r="G14" s="91"/>
+      <c r="B14" s="105" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="105"/>
+      <c r="F14" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="107"/>
       <c r="M14" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -13771,19 +13634,19 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N15">
         <v>5</v>
@@ -13798,7 +13661,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C16">
         <f>C10-$C$10</f>
@@ -13813,10 +13676,10 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N16" s="8">
         <v>5</v>
@@ -13833,7 +13696,7 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17">
         <f>C11-$C$10</f>
@@ -13850,7 +13713,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18">
         <f>C12-$C$10</f>
@@ -13866,28 +13729,28 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="90"/>
+      <c r="B20" s="105" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="105"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -13898,14 +13761,14 @@
       <c r="E22">
         <v>2</v>
       </c>
-      <c r="G22" s="89" t="s">
-        <v>156</v>
-      </c>
-      <c r="H22" s="89"/>
+      <c r="G22" s="108" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="108"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -13916,16 +13779,16 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="G23" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
+      <c r="G23" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -13938,75 +13801,75 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B26" s="73" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="73"/>
+      <c r="B26" s="85" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="85"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B29" s="73" t="s">
-        <v>153</v>
-      </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
+      <c r="B29" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B30" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
+      <c r="B30" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B31" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
+      <c r="B31" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" t="s">
         <v>147</v>
       </c>
-      <c r="E33" t="s">
+      <c r="H33" t="s">
         <v>146</v>
       </c>
-      <c r="G33" t="s">
-        <v>149</v>
-      </c>
-      <c r="H33" t="s">
-        <v>148</v>
-      </c>
       <c r="I33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -14018,7 +13881,7 @@
         <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -14032,7 +13895,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -14044,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H35">
         <v>5</v>
@@ -14058,7 +13921,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -14070,7 +13933,7 @@
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -14083,29 +13946,23 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A40" s="83"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
-      <c r="N40" s="83"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="M9:P9"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="B30:K30"/>
@@ -14116,6 +13973,12 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G23:J23"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="M9:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14126,7 +13989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D2CBD1-BC9E-4FA3-9523-60B12E859DA7}">
   <dimension ref="A2:O74"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -14134,30 +13997,30 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="109" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C2" s="109"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="95" t="s">
-        <v>148</v>
+        <v>121</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>146</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -14174,7 +14037,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -14191,7 +14054,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>13</v>
@@ -14208,7 +14071,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -14225,7 +14088,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C8">
         <v>14</v>
@@ -14241,39 +14104,39 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="90" t="s">
-        <v>189</v>
-      </c>
-      <c r="C9" s="90"/>
+      <c r="B9" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="105"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="95" t="s">
-        <v>148</v>
+        <v>121</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>146</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="61">
         <v>19</v>
       </c>
       <c r="E12">
@@ -14282,13 +14145,13 @@
       <c r="F12">
         <v>15</v>
       </c>
-      <c r="G12" s="79">
+      <c r="G12" s="61">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -14302,13 +14165,13 @@
       <c r="F13">
         <v>17</v>
       </c>
-      <c r="G13" s="79">
+      <c r="G13" s="61">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -14322,18 +14185,18 @@
       <c r="F14">
         <v>14</v>
       </c>
-      <c r="G14" s="79">
+      <c r="G14" s="61">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C15">
         <v>12</v>
       </c>
-      <c r="D15" s="79">
+      <c r="D15" s="61">
         <v>19</v>
       </c>
       <c r="E15">
@@ -14342,13 +14205,13 @@
       <c r="F15">
         <v>18</v>
       </c>
-      <c r="G15" s="79">
+      <c r="G15" s="61">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -14359,60 +14222,60 @@
       <c r="E16">
         <v>10</v>
       </c>
-      <c r="F16" s="79">
+      <c r="F16" s="61">
         <v>19</v>
       </c>
-      <c r="G16" s="79">
+      <c r="G16" s="61">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B18" s="90" t="s">
-        <v>167</v>
-      </c>
-      <c r="C18" s="90"/>
+      <c r="B18" s="105" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="105"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" t="s">
+        <v>174</v>
+      </c>
+      <c r="I19" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" t="s">
         <v>146</v>
       </c>
-      <c r="F19" t="s">
-        <v>175</v>
-      </c>
-      <c r="G19" t="s">
-        <v>176</v>
-      </c>
-      <c r="I19" t="s">
-        <v>123</v>
-      </c>
-      <c r="J19" t="s">
-        <v>148</v>
-      </c>
       <c r="K19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -14420,7 +14283,7 @@
       <c r="D20">
         <v>19</v>
       </c>
-      <c r="E20" s="108">
+      <c r="E20" s="75">
         <v>8</v>
       </c>
       <c r="F20">
@@ -14430,7 +14293,7 @@
         <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J20">
         <f>C20-$E$20</f>
@@ -14455,7 +14318,7 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -14463,7 +14326,7 @@
       <c r="D21">
         <v>18</v>
       </c>
-      <c r="E21" s="108">
+      <c r="E21" s="75">
         <v>7</v>
       </c>
       <c r="F21">
@@ -14473,7 +14336,7 @@
         <v>19</v>
       </c>
       <c r="I21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J21">
         <f>C21-$E$21</f>
@@ -14498,7 +14361,7 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22">
         <v>13</v>
@@ -14506,7 +14369,7 @@
       <c r="D22">
         <v>16</v>
       </c>
-      <c r="E22" s="108">
+      <c r="E22" s="75">
         <v>9</v>
       </c>
       <c r="F22">
@@ -14516,7 +14379,7 @@
         <v>19</v>
       </c>
       <c r="I22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J22">
         <f>C22-$E$22</f>
@@ -14541,7 +14404,7 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -14549,7 +14412,7 @@
       <c r="D23">
         <v>19</v>
       </c>
-      <c r="E23" s="108">
+      <c r="E23" s="75">
         <v>8</v>
       </c>
       <c r="F23">
@@ -14559,7 +14422,7 @@
         <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J23">
         <f>C23-$E$23</f>
@@ -14584,7 +14447,7 @@
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C24">
         <v>14</v>
@@ -14592,7 +14455,7 @@
       <c r="D24">
         <v>17</v>
       </c>
-      <c r="E24" s="108">
+      <c r="E24" s="75">
         <v>10</v>
       </c>
       <c r="F24">
@@ -14602,7 +14465,7 @@
         <v>19</v>
       </c>
       <c r="I24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J24">
         <f>C24-$E$24</f>
@@ -14626,67 +14489,67 @@
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B25" s="73" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
+      <c r="B25" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="90" t="s">
-        <v>161</v>
-      </c>
-      <c r="C27" s="90"/>
+      <c r="B27" s="105" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="105"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" t="s">
+        <v>174</v>
+      </c>
+      <c r="I28" t="s">
+        <v>121</v>
+      </c>
+      <c r="J28" t="s">
         <v>146</v>
       </c>
-      <c r="F28" t="s">
-        <v>175</v>
-      </c>
-      <c r="G28" t="s">
-        <v>176</v>
-      </c>
-      <c r="I28" t="s">
-        <v>123</v>
-      </c>
-      <c r="J28" t="s">
-        <v>148</v>
-      </c>
       <c r="K28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="108">
+        <v>143</v>
+      </c>
+      <c r="C29" s="75">
         <v>2</v>
       </c>
       <c r="D29">
         <v>11</v>
       </c>
-      <c r="E29" s="108">
+      <c r="E29" s="75">
         <v>0</v>
       </c>
       <c r="F29">
@@ -14696,7 +14559,7 @@
         <v>11</v>
       </c>
       <c r="I29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J29">
         <f>C29-$C$29</f>
@@ -14721,7 +14584,7 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -14739,7 +14602,7 @@
         <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J30">
         <f>C30-$C$29</f>
@@ -14764,25 +14627,25 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31">
         <v>4</v>
       </c>
-      <c r="D31" s="108">
+      <c r="D31" s="75">
         <v>7</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" s="108">
+      <c r="F31" s="75">
         <v>5</v>
       </c>
       <c r="G31">
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J31">
         <f>C31-$C$29</f>
@@ -14807,7 +14670,7 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -14825,7 +14688,7 @@
         <v>11</v>
       </c>
       <c r="I32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J32">
         <f>C32-$C$29</f>
@@ -14850,7 +14713,7 @@
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -14864,11 +14727,11 @@
       <c r="F33">
         <v>9</v>
       </c>
-      <c r="G33" s="108">
+      <c r="G33" s="75">
         <v>9</v>
       </c>
       <c r="I33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J33">
         <f>C33-$C$29</f>
@@ -14892,45 +14755,45 @@
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B34" s="73" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
+      <c r="B34" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B36" s="90" t="s">
-        <v>188</v>
-      </c>
-      <c r="C36" s="90"/>
+      <c r="B36" s="105" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="105"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G37" t="s">
-        <v>176</v>
-      </c>
-      <c r="H37" s="89" t="s">
-        <v>187</v>
-      </c>
-      <c r="I37" s="89"/>
+        <v>174</v>
+      </c>
+      <c r="H37" s="108" t="s">
+        <v>185</v>
+      </c>
+      <c r="I37" s="108"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -14950,9 +14813,9 @@
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="83">
+        <v>86</v>
+      </c>
+      <c r="C39" s="65">
         <v>1</v>
       </c>
       <c r="D39">
@@ -14967,16 +14830,16 @@
       <c r="G39">
         <v>3</v>
       </c>
-      <c r="H39" s="73" t="s">
-        <v>186</v>
-      </c>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="73"/>
+      <c r="H39" s="85" t="s">
+        <v>184</v>
+      </c>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -14996,7 +14859,7 @@
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -15016,7 +14879,7 @@
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -15036,30 +14899,30 @@
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F45" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I45" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -15077,12 +14940,12 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -15100,12 +14963,12 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -15123,12 +14986,12 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -15142,16 +15005,16 @@
       <c r="F49">
         <v>4</v>
       </c>
-      <c r="G49" s="83">
+      <c r="G49" s="65">
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -15169,43 +15032,43 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B51" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="C51" s="89"/>
+      <c r="B51" s="108" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="108"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B53" s="107" t="s">
-        <v>178</v>
+      <c r="B53" s="74" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E54" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F54" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G54" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -15225,7 +15088,7 @@
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -15245,7 +15108,7 @@
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -15265,7 +15128,7 @@
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -15285,7 +15148,7 @@
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -15305,47 +15168,47 @@
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.35">
       <c r="G61" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B62" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E62" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J62" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="F62" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="J62" s="95" t="s">
-        <v>148</v>
-      </c>
       <c r="K62" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B63" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -15363,7 +15226,7 @@
         <v>1</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J63">
         <v>10</v>
@@ -15380,7 +15243,7 @@
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B64" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -15398,7 +15261,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J64">
         <v>10</v>
@@ -15415,7 +15278,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B65" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -15433,7 +15296,7 @@
         <v>1</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J65">
         <v>13</v>
@@ -15450,7 +15313,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B66" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -15468,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J66">
         <v>12</v>
@@ -15485,7 +15348,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B67" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -15503,7 +15366,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J67">
         <v>14</v>
@@ -15519,43 +15382,43 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B71" s="73" t="s">
-        <v>172</v>
-      </c>
-      <c r="C71" s="73"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
+      <c r="B71" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" s="85"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="85"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A74" s="83"/>
-      <c r="B74" s="83"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="83"/>
-      <c r="H74" s="83"/>
-      <c r="I74" s="83"/>
-      <c r="J74" s="83"/>
-      <c r="K74" s="83"/>
-      <c r="L74" s="83"/>
-      <c r="M74" s="83"/>
-      <c r="N74" s="83"/>
-      <c r="O74" s="83"/>
+      <c r="A74" s="65"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="65"/>
+      <c r="K74" s="65"/>
+      <c r="L74" s="65"/>
+      <c r="M74" s="65"/>
+      <c r="N74" s="65"/>
+      <c r="O74" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B71:E71"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B34:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
